--- a/CumulativeTestsByTypeByCounty/2021-05-18.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-05-18.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>55903</v>
+        <v>55921</v>
       </c>
       <c r="C2" s="4">
         <v>1510</v>
       </c>
       <c r="D2" s="4">
-        <v>8526</v>
+        <v>8588</v>
       </c>
       <c r="E2" s="4">
-        <v>65939</v>
+        <v>66019</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4314</v>
+        <v>4318</v>
       </c>
       <c r="C3" s="4">
         <v>250</v>
       </c>
       <c r="D3" s="4">
-        <v>2956</v>
+        <v>2964</v>
       </c>
       <c r="E3" s="4">
-        <v>7520</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>59604</v>
+        <v>59648</v>
       </c>
       <c r="C4" s="4">
-        <v>3244</v>
+        <v>3275</v>
       </c>
       <c r="D4" s="4">
-        <v>31630</v>
+        <v>31758</v>
       </c>
       <c r="E4" s="4">
-        <v>94478</v>
+        <v>94681</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>8489</v>
+        <v>8516</v>
       </c>
       <c r="C5" s="4">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="D5" s="4">
-        <v>6180</v>
+        <v>6192</v>
       </c>
       <c r="E5" s="4">
-        <v>16991</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C6" s="4">
         <v>547</v>
@@ -1148,7 +1148,7 @@
         <v>601</v>
       </c>
       <c r="E6" s="4">
-        <v>4137</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1162,10 +1162,10 @@
         <v>265</v>
       </c>
       <c r="D7" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E7" s="4">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>64444</v>
+        <v>64638</v>
       </c>
       <c r="C8" s="4">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D8" s="4">
-        <v>5670</v>
+        <v>5693</v>
       </c>
       <c r="E8" s="4">
-        <v>71333</v>
+        <v>71551</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>19093</v>
+        <v>19116</v>
       </c>
       <c r="C9" s="4">
-        <v>1568</v>
+        <v>1585</v>
       </c>
       <c r="D9" s="4">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="E9" s="4">
-        <v>22627</v>
+        <v>22676</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="C10" s="4">
         <v>63</v>
       </c>
       <c r="D10" s="4">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E10" s="4">
-        <v>2593</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>8749</v>
+        <v>8775</v>
       </c>
       <c r="C11" s="4">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D11" s="4">
-        <v>4326</v>
+        <v>4341</v>
       </c>
       <c r="E11" s="4">
-        <v>13619</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>56055</v>
+        <v>56190</v>
       </c>
       <c r="C12" s="4">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D12" s="4">
-        <v>19565</v>
+        <v>19677</v>
       </c>
       <c r="E12" s="4">
-        <v>76841</v>
+        <v>77090</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>33624</v>
+        <v>33644</v>
       </c>
       <c r="C14" s="4">
-        <v>5771</v>
+        <v>5776</v>
       </c>
       <c r="D14" s="4">
-        <v>8738</v>
+        <v>8790</v>
       </c>
       <c r="E14" s="4">
-        <v>48133</v>
+        <v>48210</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>261267</v>
+        <v>261701</v>
       </c>
       <c r="C15" s="4">
         <v>13593</v>
       </c>
       <c r="D15" s="4">
-        <v>23233</v>
+        <v>23565</v>
       </c>
       <c r="E15" s="4">
-        <v>298093</v>
+        <v>298859</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>2293228</v>
+        <v>2297261</v>
       </c>
       <c r="C16" s="4">
-        <v>56106</v>
+        <v>56153</v>
       </c>
       <c r="D16" s="4">
-        <v>246724</v>
+        <v>248360</v>
       </c>
       <c r="E16" s="4">
-        <v>2596058</v>
+        <v>2601774</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>6061</v>
+        <v>6073</v>
       </c>
       <c r="C17" s="4">
         <v>279</v>
       </c>
       <c r="D17" s="4">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E17" s="4">
-        <v>7301</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>9166</v>
+        <v>9175</v>
       </c>
       <c r="C19" s="4">
         <v>479</v>
       </c>
       <c r="D19" s="4">
-        <v>4871</v>
+        <v>4880</v>
       </c>
       <c r="E19" s="4">
-        <v>14516</v>
+        <v>14534</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>62060</v>
+        <v>62107</v>
       </c>
       <c r="C20" s="4">
-        <v>9950</v>
+        <v>9953</v>
       </c>
       <c r="D20" s="4">
-        <v>14852</v>
+        <v>14887</v>
       </c>
       <c r="E20" s="4">
-        <v>86862</v>
+        <v>86947</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>345030</v>
+        <v>345525</v>
       </c>
       <c r="C21" s="4">
-        <v>20096</v>
+        <v>20141</v>
       </c>
       <c r="D21" s="4">
-        <v>47038</v>
+        <v>47423</v>
       </c>
       <c r="E21" s="4">
-        <v>412164</v>
+        <v>413089</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>260581</v>
+        <v>260760</v>
       </c>
       <c r="C22" s="4">
-        <v>9047</v>
+        <v>9062</v>
       </c>
       <c r="D22" s="4">
-        <v>22769</v>
+        <v>22866</v>
       </c>
       <c r="E22" s="4">
-        <v>292397</v>
+        <v>292688</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8629</v>
+        <v>8631</v>
       </c>
       <c r="C23" s="4">
         <v>127</v>
       </c>
       <c r="D23" s="4">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E23" s="4">
-        <v>10241</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C24" s="4">
         <v>126</v>
       </c>
       <c r="D24" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="4">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>18622</v>
+        <v>18639</v>
       </c>
       <c r="C25" s="4">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D25" s="4">
-        <v>3406</v>
+        <v>3418</v>
       </c>
       <c r="E25" s="4">
-        <v>23528</v>
+        <v>23559</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>17287</v>
+        <v>17306</v>
       </c>
       <c r="C26" s="4">
         <v>839</v>
       </c>
       <c r="D26" s="4">
-        <v>20730</v>
+        <v>20783</v>
       </c>
       <c r="E26" s="4">
-        <v>38856</v>
+        <v>38928</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>15633</v>
+        <v>15650</v>
       </c>
       <c r="C27" s="4">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D27" s="4">
-        <v>3041</v>
+        <v>3057</v>
       </c>
       <c r="E27" s="4">
-        <v>19243</v>
+        <v>19279</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>36523</v>
+        <v>36580</v>
       </c>
       <c r="C28" s="4">
         <v>1188</v>
       </c>
       <c r="D28" s="4">
-        <v>4708</v>
+        <v>4734</v>
       </c>
       <c r="E28" s="4">
-        <v>42419</v>
+        <v>42502</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>36258</v>
+        <v>36329</v>
       </c>
       <c r="C29" s="4">
         <v>1654</v>
       </c>
       <c r="D29" s="4">
-        <v>6370</v>
+        <v>6395</v>
       </c>
       <c r="E29" s="4">
-        <v>44282</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>14157</v>
+        <v>14176</v>
       </c>
       <c r="C30" s="4">
         <v>892</v>
       </c>
       <c r="D30" s="4">
-        <v>5724</v>
+        <v>5737</v>
       </c>
       <c r="E30" s="4">
-        <v>20773</v>
+        <v>20805</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>5281</v>
+        <v>5283</v>
       </c>
       <c r="C31" s="4">
         <v>244</v>
       </c>
       <c r="D31" s="4">
-        <v>5963</v>
+        <v>5978</v>
       </c>
       <c r="E31" s="4">
-        <v>11488</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>275446</v>
+        <v>275876</v>
       </c>
       <c r="C32" s="4">
-        <v>8332</v>
+        <v>8335</v>
       </c>
       <c r="D32" s="4">
-        <v>69411</v>
+        <v>69750</v>
       </c>
       <c r="E32" s="4">
-        <v>353189</v>
+        <v>353961</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>6125</v>
+        <v>6130</v>
       </c>
       <c r="C33" s="4">
         <v>390</v>
       </c>
       <c r="D33" s="4">
-        <v>2070</v>
+        <v>2075</v>
       </c>
       <c r="E33" s="4">
-        <v>8585</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1621,10 +1621,10 @@
         <v>945</v>
       </c>
       <c r="D34" s="4">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E34" s="4">
-        <v>3326</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>12696</v>
+        <v>12700</v>
       </c>
       <c r="C35" s="4">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="D35" s="4">
-        <v>4399</v>
+        <v>4418</v>
       </c>
       <c r="E35" s="4">
-        <v>20264</v>
+        <v>20289</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>4314</v>
+        <v>4330</v>
       </c>
       <c r="C36" s="4">
         <v>296</v>
       </c>
       <c r="D36" s="4">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="E36" s="4">
-        <v>6588</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>8742</v>
+        <v>8747</v>
       </c>
       <c r="C37" s="4">
         <v>797</v>
       </c>
       <c r="D37" s="4">
-        <v>1727</v>
+        <v>1739</v>
       </c>
       <c r="E37" s="4">
-        <v>11266</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>25082</v>
+        <v>25092</v>
       </c>
       <c r="C38" s="4">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D38" s="4">
-        <v>10171</v>
+        <v>10211</v>
       </c>
       <c r="E38" s="4">
-        <v>36175</v>
+        <v>36227</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="C39" s="4">
         <v>391</v>
       </c>
       <c r="D39" s="4">
-        <v>4744</v>
+        <v>4752</v>
       </c>
       <c r="E39" s="4">
-        <v>8461</v>
+        <v>8471</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>4276</v>
+        <v>4278</v>
       </c>
       <c r="C40" s="4">
         <v>500</v>
@@ -1726,7 +1726,7 @@
         <v>1887</v>
       </c>
       <c r="E40" s="4">
-        <v>6663</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C41" s="4">
         <v>21</v>
       </c>
       <c r="D41" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E41" s="4">
-        <v>1206</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C42" s="4">
         <v>33</v>
       </c>
       <c r="D42" s="4">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E42" s="4">
-        <v>3905</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="C43" s="4">
         <v>103</v>
       </c>
       <c r="D43" s="4">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="E43" s="4">
-        <v>6231</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>956366</v>
+        <v>958350</v>
       </c>
       <c r="C44" s="4">
-        <v>84333</v>
+        <v>84405</v>
       </c>
       <c r="D44" s="4">
-        <v>126563</v>
+        <v>127430</v>
       </c>
       <c r="E44" s="4">
-        <v>1167262</v>
+        <v>1170185</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>12422</v>
+        <v>12432</v>
       </c>
       <c r="C46" s="4">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D46" s="4">
-        <v>4981</v>
+        <v>4984</v>
       </c>
       <c r="E46" s="4">
-        <v>18387</v>
+        <v>18401</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>107717</v>
+        <v>107924</v>
       </c>
       <c r="C47" s="4">
-        <v>8319</v>
+        <v>8325</v>
       </c>
       <c r="D47" s="4">
-        <v>24105</v>
+        <v>24283</v>
       </c>
       <c r="E47" s="4">
-        <v>140141</v>
+        <v>140532</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6664</v>
+        <v>6671</v>
       </c>
       <c r="C48" s="4">
         <v>305</v>
       </c>
       <c r="D48" s="4">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="E48" s="4">
-        <v>9643</v>
+        <v>9654</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1876,10 +1876,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="4">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="E49" s="4">
-        <v>3271</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>24018</v>
+        <v>24046</v>
       </c>
       <c r="C50" s="4">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="D50" s="4">
-        <v>5779</v>
+        <v>5796</v>
       </c>
       <c r="E50" s="4">
-        <v>31225</v>
+        <v>31276</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>90264</v>
+        <v>90432</v>
       </c>
       <c r="C51" s="4">
         <v>2207</v>
       </c>
       <c r="D51" s="4">
-        <v>5682</v>
+        <v>5737</v>
       </c>
       <c r="E51" s="4">
-        <v>98153</v>
+        <v>98376</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C52" s="4">
         <v>46</v>
@@ -1930,7 +1930,7 @@
         <v>796</v>
       </c>
       <c r="E52" s="4">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="C53" s="4">
         <v>69</v>
       </c>
       <c r="D53" s="4">
-        <v>1282</v>
+        <v>1301</v>
       </c>
       <c r="E53" s="4">
-        <v>5823</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C54" s="4">
         <v>19</v>
       </c>
       <c r="D54" s="4">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E54" s="4">
-        <v>2982</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2587</v>
+        <v>2594</v>
       </c>
       <c r="C55" s="4">
         <v>36</v>
       </c>
       <c r="D55" s="4">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E55" s="4">
-        <v>4379</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C56" s="4">
         <v>24</v>
       </c>
       <c r="D56" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E56" s="4">
-        <v>2395</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C57" s="4">
         <v>386</v>
@@ -2015,7 +2015,7 @@
         <v>1929</v>
       </c>
       <c r="E57" s="4">
-        <v>3878</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2412931</v>
+        <v>2418157</v>
       </c>
       <c r="C58" s="4">
-        <v>136040</v>
+        <v>136118</v>
       </c>
       <c r="D58" s="4">
-        <v>259444</v>
+        <v>261536</v>
       </c>
       <c r="E58" s="4">
-        <v>2808415</v>
+        <v>2815811</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>8171</v>
+        <v>8181</v>
       </c>
       <c r="C59" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D59" s="4">
-        <v>2834</v>
+        <v>2844</v>
       </c>
       <c r="E59" s="4">
-        <v>11501</v>
+        <v>11522</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>9606</v>
+        <v>9622</v>
       </c>
       <c r="C60" s="4">
         <v>313</v>
       </c>
       <c r="D60" s="4">
-        <v>2994</v>
+        <v>3011</v>
       </c>
       <c r="E60" s="4">
-        <v>12913</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>5056</v>
+        <v>5063</v>
       </c>
       <c r="C61" s="4">
         <v>990</v>
       </c>
       <c r="D61" s="4">
-        <v>2826</v>
+        <v>2839</v>
       </c>
       <c r="E61" s="4">
-        <v>8872</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="C62" s="4">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D62" s="4">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E62" s="4">
-        <v>3242</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>595384</v>
+        <v>596688</v>
       </c>
       <c r="C63" s="4">
-        <v>61196</v>
+        <v>61240</v>
       </c>
       <c r="D63" s="4">
-        <v>107619</v>
+        <v>108232</v>
       </c>
       <c r="E63" s="4">
-        <v>764199</v>
+        <v>766160</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C64" s="4">
         <v>12</v>
@@ -2134,7 +2134,7 @@
         <v>393</v>
       </c>
       <c r="E64" s="4">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>15456</v>
+        <v>15484</v>
       </c>
       <c r="C65" s="4">
         <v>111</v>
       </c>
       <c r="D65" s="4">
-        <v>12586</v>
+        <v>12754</v>
       </c>
       <c r="E65" s="4">
-        <v>28153</v>
+        <v>28349</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2165,10 +2165,10 @@
         <v>415</v>
       </c>
       <c r="D66" s="4">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E66" s="4">
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>17831</v>
+        <v>17838</v>
       </c>
       <c r="C67" s="4">
-        <v>2633</v>
+        <v>2639</v>
       </c>
       <c r="D67" s="4">
-        <v>3919</v>
+        <v>3928</v>
       </c>
       <c r="E67" s="4">
-        <v>24383</v>
+        <v>24405</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4920</v>
+        <v>4929</v>
       </c>
       <c r="C68" s="4">
         <v>386</v>
       </c>
       <c r="D68" s="4">
-        <v>4032</v>
+        <v>4046</v>
       </c>
       <c r="E68" s="4">
-        <v>9338</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>60378</v>
+        <v>60425</v>
       </c>
       <c r="C69" s="4">
-        <v>4934</v>
+        <v>4938</v>
       </c>
       <c r="D69" s="4">
-        <v>23480</v>
+        <v>23622</v>
       </c>
       <c r="E69" s="4">
-        <v>88792</v>
+        <v>88985</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C70" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" s="4">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E70" s="4">
-        <v>1566</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>901856</v>
+        <v>903225</v>
       </c>
       <c r="C71" s="4">
         <v>17275</v>
       </c>
       <c r="D71" s="4">
-        <v>365706</v>
+        <v>366373</v>
       </c>
       <c r="E71" s="4">
-        <v>1284837</v>
+        <v>1286873</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>170506</v>
+        <v>170762</v>
       </c>
       <c r="C72" s="4">
-        <v>7314</v>
+        <v>7316</v>
       </c>
       <c r="D72" s="4">
-        <v>19239</v>
+        <v>19374</v>
       </c>
       <c r="E72" s="4">
-        <v>197059</v>
+        <v>197452</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>19435</v>
+        <v>19477</v>
       </c>
       <c r="C73" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D73" s="4">
-        <v>8012</v>
+        <v>8033</v>
       </c>
       <c r="E73" s="4">
-        <v>28619</v>
+        <v>28683</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>12772</v>
+        <v>12779</v>
       </c>
       <c r="C74" s="4">
         <v>420</v>
       </c>
       <c r="D74" s="4">
-        <v>3691</v>
+        <v>3709</v>
       </c>
       <c r="E74" s="4">
-        <v>16883</v>
+        <v>16908</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>27884</v>
+        <v>27933</v>
       </c>
       <c r="C75" s="4">
         <v>867</v>
       </c>
       <c r="D75" s="4">
-        <v>5507</v>
+        <v>5542</v>
       </c>
       <c r="E75" s="4">
-        <v>34258</v>
+        <v>34342</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>15580</v>
+        <v>15595</v>
       </c>
       <c r="C76" s="4">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D76" s="4">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="E76" s="4">
-        <v>19311</v>
+        <v>19351</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C77" s="4">
         <v>33</v>
       </c>
       <c r="D77" s="4">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E77" s="4">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="C78" s="4">
         <v>122</v>
       </c>
       <c r="D78" s="4">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E78" s="4">
-        <v>3125</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>696021</v>
+        <v>697087</v>
       </c>
       <c r="C80" s="4">
-        <v>39992</v>
+        <v>40146</v>
       </c>
       <c r="D80" s="4">
-        <v>60872</v>
+        <v>61326</v>
       </c>
       <c r="E80" s="4">
-        <v>796885</v>
+        <v>798559</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4588</v>
+        <v>4592</v>
       </c>
       <c r="C81" s="4">
         <v>490</v>
       </c>
       <c r="D81" s="4">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E81" s="4">
-        <v>5954</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>14585</v>
+        <v>14596</v>
       </c>
       <c r="C82" s="4">
         <v>693</v>
       </c>
       <c r="D82" s="4">
-        <v>7065</v>
+        <v>7080</v>
       </c>
       <c r="E82" s="4">
-        <v>22343</v>
+        <v>22369</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>18653</v>
+        <v>18675</v>
       </c>
       <c r="C83" s="4">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D83" s="4">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="E83" s="4">
-        <v>20422</v>
+        <v>20460</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C84" s="4">
         <v>235</v>
       </c>
       <c r="D84" s="4">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="E84" s="4">
-        <v>4893</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>370203</v>
+        <v>370891</v>
       </c>
       <c r="C85" s="4">
-        <v>19917</v>
+        <v>20075</v>
       </c>
       <c r="D85" s="4">
-        <v>36747</v>
+        <v>37086</v>
       </c>
       <c r="E85" s="4">
-        <v>426867</v>
+        <v>428052</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="C86" s="4">
         <v>53</v>
       </c>
       <c r="D86" s="4">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="E86" s="4">
-        <v>3649</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>15918</v>
+        <v>15955</v>
       </c>
       <c r="C87" s="4">
         <v>480</v>
       </c>
       <c r="D87" s="4">
-        <v>4177</v>
+        <v>4188</v>
       </c>
       <c r="E87" s="4">
-        <v>20575</v>
+        <v>20623</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="C89" s="4">
         <v>180</v>
       </c>
       <c r="D89" s="4">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="E89" s="4">
-        <v>5049</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>12946</v>
+        <v>12957</v>
       </c>
       <c r="C90" s="4">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D90" s="4">
-        <v>5670</v>
+        <v>5688</v>
       </c>
       <c r="E90" s="4">
-        <v>19000</v>
+        <v>19031</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>8142</v>
+        <v>8148</v>
       </c>
       <c r="C91" s="4">
         <v>1023</v>
       </c>
       <c r="D91" s="4">
-        <v>3053</v>
+        <v>3072</v>
       </c>
       <c r="E91" s="4">
-        <v>12218</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>108189</v>
+        <v>108317</v>
       </c>
       <c r="C92" s="4">
-        <v>4222</v>
+        <v>4224</v>
       </c>
       <c r="D92" s="4">
-        <v>17171</v>
+        <v>17281</v>
       </c>
       <c r="E92" s="4">
-        <v>129582</v>
+        <v>129822</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>50175</v>
+        <v>50224</v>
       </c>
       <c r="C93" s="4">
         <v>10620</v>
       </c>
       <c r="D93" s="4">
-        <v>17312</v>
+        <v>17429</v>
       </c>
       <c r="E93" s="4">
-        <v>78107</v>
+        <v>78273</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>34548</v>
+        <v>34574</v>
       </c>
       <c r="C94" s="4">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D94" s="4">
-        <v>3489</v>
+        <v>3520</v>
       </c>
       <c r="E94" s="4">
-        <v>39173</v>
+        <v>39232</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>90144</v>
+        <v>90299</v>
       </c>
       <c r="C95" s="4">
-        <v>4063</v>
+        <v>4071</v>
       </c>
       <c r="D95" s="4">
-        <v>19553</v>
+        <v>19696</v>
       </c>
       <c r="E95" s="4">
-        <v>113760</v>
+        <v>114066</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>16197</v>
+        <v>16238</v>
       </c>
       <c r="C96" s="4">
         <v>343</v>
       </c>
       <c r="D96" s="4">
-        <v>3081</v>
+        <v>3107</v>
       </c>
       <c r="E96" s="4">
-        <v>19621</v>
+        <v>19688</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C97" s="4">
         <v>59</v>
       </c>
       <c r="D97" s="4">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E97" s="4">
-        <v>3543</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>5773</v>
+        <v>5783</v>
       </c>
       <c r="C98" s="4">
         <v>327</v>
       </c>
       <c r="D98" s="4">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="E98" s="4">
-        <v>7601</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,13 +2723,13 @@
         <v>1316</v>
       </c>
       <c r="C99" s="4">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D99" s="4">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="E99" s="4">
-        <v>3949</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2743,10 +2743,10 @@
         <v>238</v>
       </c>
       <c r="D100" s="4">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E100" s="4">
-        <v>2945</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>22397</v>
+        <v>22431</v>
       </c>
       <c r="C101" s="4">
         <v>3402</v>
       </c>
       <c r="D101" s="4">
-        <v>10000</v>
+        <v>10137</v>
       </c>
       <c r="E101" s="4">
-        <v>35799</v>
+        <v>35970</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>4279584</v>
+        <v>4286809</v>
       </c>
       <c r="C102" s="4">
-        <v>223625</v>
+        <v>224378</v>
       </c>
       <c r="D102" s="4">
-        <v>452196</v>
+        <v>456451</v>
       </c>
       <c r="E102" s="4">
-        <v>4955405</v>
+        <v>4967638</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>60155</v>
+        <v>60183</v>
       </c>
       <c r="C103" s="4">
-        <v>7921</v>
+        <v>7923</v>
       </c>
       <c r="D103" s="4">
-        <v>10305</v>
+        <v>10348</v>
       </c>
       <c r="E103" s="4">
-        <v>78381</v>
+        <v>78454</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>61</v>
       </c>
       <c r="D104" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E104" s="4">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="C105" s="4">
         <v>36</v>
       </c>
       <c r="D105" s="4">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E105" s="4">
-        <v>2870</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>257233</v>
+        <v>257721</v>
       </c>
       <c r="C106" s="4">
-        <v>10937</v>
+        <v>10942</v>
       </c>
       <c r="D106" s="4">
-        <v>22959</v>
+        <v>23110</v>
       </c>
       <c r="E106" s="4">
-        <v>291129</v>
+        <v>291773</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>405</v>
       </c>
       <c r="D107" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E107" s="4">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>27614</v>
+        <v>27636</v>
       </c>
       <c r="C108" s="4">
         <v>2315</v>
       </c>
       <c r="D108" s="4">
-        <v>10190</v>
+        <v>10292</v>
       </c>
       <c r="E108" s="4">
-        <v>40119</v>
+        <v>40243</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>475005</v>
+        <v>475761</v>
       </c>
       <c r="C109" s="4">
-        <v>16319</v>
+        <v>16350</v>
       </c>
       <c r="D109" s="4">
-        <v>202444</v>
+        <v>203928</v>
       </c>
       <c r="E109" s="4">
-        <v>693768</v>
+        <v>696039</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>33163</v>
+        <v>33201</v>
       </c>
       <c r="C110" s="4">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D110" s="4">
-        <v>7183</v>
+        <v>7195</v>
       </c>
       <c r="E110" s="4">
-        <v>41343</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>8662</v>
+        <v>8679</v>
       </c>
       <c r="C111" s="4">
         <v>117</v>
       </c>
       <c r="D111" s="4">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="E111" s="4">
-        <v>12266</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>36058</v>
+        <v>36122</v>
       </c>
       <c r="C112" s="4">
         <v>2484</v>
       </c>
       <c r="D112" s="4">
-        <v>21575</v>
+        <v>21687</v>
       </c>
       <c r="E112" s="4">
-        <v>60117</v>
+        <v>60293</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>17591</v>
+        <v>17608</v>
       </c>
       <c r="C113" s="4">
         <v>1890</v>
       </c>
       <c r="D113" s="4">
-        <v>4888</v>
+        <v>4900</v>
       </c>
       <c r="E113" s="4">
-        <v>24369</v>
+        <v>24398</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>15510</v>
+        <v>15522</v>
       </c>
       <c r="C114" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D114" s="4">
-        <v>4263</v>
+        <v>4287</v>
       </c>
       <c r="E114" s="4">
-        <v>20253</v>
+        <v>20290</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>17053</v>
+        <v>17058</v>
       </c>
       <c r="C115" s="4">
         <v>566</v>
       </c>
       <c r="D115" s="4">
-        <v>5212</v>
+        <v>5236</v>
       </c>
       <c r="E115" s="4">
-        <v>22831</v>
+        <v>22860</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E116" s="4">
-        <v>3769</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>80169</v>
+        <v>80301</v>
       </c>
       <c r="C117" s="4">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="D117" s="4">
-        <v>13248</v>
+        <v>13314</v>
       </c>
       <c r="E117" s="4">
-        <v>97308</v>
+        <v>97507</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8687</v>
+        <v>8692</v>
       </c>
       <c r="C118" s="4">
         <v>1489</v>
       </c>
       <c r="D118" s="4">
-        <v>4680</v>
+        <v>4691</v>
       </c>
       <c r="E118" s="4">
-        <v>14856</v>
+        <v>14872</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E119" s="4">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="C120" s="4">
         <v>198</v>
       </c>
       <c r="D120" s="4">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E120" s="4">
-        <v>2789</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>7320</v>
+        <v>7326</v>
       </c>
       <c r="C121" s="4">
         <v>235</v>
       </c>
       <c r="D121" s="4">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="E121" s="4">
-        <v>9662</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>15115</v>
+        <v>15122</v>
       </c>
       <c r="C122" s="4">
         <v>2640</v>
       </c>
       <c r="D122" s="4">
-        <v>4931</v>
+        <v>4970</v>
       </c>
       <c r="E122" s="4">
-        <v>22686</v>
+        <v>22732</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C123" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D123" s="4">
         <v>277</v>
       </c>
       <c r="E123" s="4">
-        <v>2134</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>168013</v>
+        <v>168180</v>
       </c>
       <c r="C124" s="4">
-        <v>12880</v>
+        <v>12889</v>
       </c>
       <c r="D124" s="4">
-        <v>45307</v>
+        <v>45551</v>
       </c>
       <c r="E124" s="4">
-        <v>226200</v>
+        <v>226620</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>13964</v>
+        <v>13997</v>
       </c>
       <c r="C125" s="4">
         <v>593</v>
       </c>
       <c r="D125" s="4">
-        <v>3595</v>
+        <v>3605</v>
       </c>
       <c r="E125" s="4">
-        <v>18152</v>
+        <v>18195</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>49466</v>
+        <v>49506</v>
       </c>
       <c r="C126" s="4">
-        <v>8418</v>
+        <v>8424</v>
       </c>
       <c r="D126" s="4">
-        <v>17858</v>
+        <v>17899</v>
       </c>
       <c r="E126" s="4">
-        <v>75742</v>
+        <v>75829</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>120867</v>
+        <v>121050</v>
       </c>
       <c r="C127" s="4">
-        <v>6885</v>
+        <v>6896</v>
       </c>
       <c r="D127" s="4">
-        <v>19545</v>
+        <v>19628</v>
       </c>
       <c r="E127" s="4">
-        <v>147297</v>
+        <v>147574</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>6481</v>
+        <v>6483</v>
       </c>
       <c r="C128" s="4">
         <v>202</v>
       </c>
       <c r="D128" s="4">
-        <v>3451</v>
+        <v>3461</v>
       </c>
       <c r="E128" s="4">
-        <v>10134</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>14805</v>
+        <v>14819</v>
       </c>
       <c r="C129" s="4">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D129" s="4">
-        <v>5552</v>
+        <v>5564</v>
       </c>
       <c r="E129" s="4">
-        <v>20827</v>
+        <v>20857</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>107542</v>
+        <v>107741</v>
       </c>
       <c r="C130" s="4">
-        <v>5431</v>
+        <v>5437</v>
       </c>
       <c r="D130" s="4">
-        <v>21150</v>
+        <v>21256</v>
       </c>
       <c r="E130" s="4">
-        <v>134123</v>
+        <v>134434</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>25242</v>
+        <v>25308</v>
       </c>
       <c r="C131" s="4">
         <v>1689</v>
       </c>
       <c r="D131" s="4">
-        <v>10168</v>
+        <v>10230</v>
       </c>
       <c r="E131" s="4">
-        <v>37099</v>
+        <v>37227</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132" s="4">
         <v>43</v>
@@ -3290,7 +3290,7 @@
         <v>75</v>
       </c>
       <c r="E132" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E133" s="4">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>32145</v>
+        <v>32219</v>
       </c>
       <c r="C134" s="4">
         <v>945</v>
       </c>
       <c r="D134" s="4">
-        <v>21212</v>
+        <v>21266</v>
       </c>
       <c r="E134" s="4">
-        <v>54302</v>
+        <v>54430</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="C135" s="4">
         <v>41</v>
       </c>
       <c r="D135" s="4">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E135" s="4">
-        <v>2184</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3372,10 +3372,10 @@
         <v>44</v>
       </c>
       <c r="D137" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E137" s="4">
-        <v>2455</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>27094</v>
+        <v>27106</v>
       </c>
       <c r="C138" s="4">
-        <v>4707</v>
+        <v>4709</v>
       </c>
       <c r="D138" s="4">
-        <v>8377</v>
+        <v>8404</v>
       </c>
       <c r="E138" s="4">
-        <v>40178</v>
+        <v>40219</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C139" s="4">
         <v>42</v>
       </c>
       <c r="D139" s="4">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="E139" s="4">
-        <v>3381</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>7476</v>
+        <v>7479</v>
       </c>
       <c r="C140" s="4">
         <v>296</v>
       </c>
       <c r="D140" s="4">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E140" s="4">
-        <v>8375</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>22743</v>
+        <v>22759</v>
       </c>
       <c r="C141" s="4">
         <v>2430</v>
       </c>
       <c r="D141" s="4">
-        <v>4996</v>
+        <v>5022</v>
       </c>
       <c r="E141" s="4">
-        <v>30169</v>
+        <v>30211</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5777</v>
+        <v>5779</v>
       </c>
       <c r="C142" s="4">
         <v>109</v>
       </c>
       <c r="D142" s="4">
-        <v>5370</v>
+        <v>5375</v>
       </c>
       <c r="E142" s="4">
-        <v>11256</v>
+        <v>11263</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>17478</v>
+        <v>17502</v>
       </c>
       <c r="C143" s="4">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D143" s="4">
-        <v>4317</v>
+        <v>4330</v>
       </c>
       <c r="E143" s="4">
-        <v>22430</v>
+        <v>22469</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>12249</v>
+        <v>12271</v>
       </c>
       <c r="C144" s="4">
         <v>735</v>
       </c>
       <c r="D144" s="4">
-        <v>3939</v>
+        <v>3971</v>
       </c>
       <c r="E144" s="4">
-        <v>16923</v>
+        <v>16977</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>8433</v>
+        <v>8444</v>
       </c>
       <c r="C145" s="4">
         <v>266</v>
       </c>
       <c r="D145" s="4">
-        <v>3528</v>
+        <v>3537</v>
       </c>
       <c r="E145" s="4">
-        <v>12227</v>
+        <v>12247</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>10045</v>
+        <v>10048</v>
       </c>
       <c r="C146" s="4">
         <v>682</v>
       </c>
       <c r="D146" s="4">
-        <v>2509</v>
+        <v>2519</v>
       </c>
       <c r="E146" s="4">
-        <v>13236</v>
+        <v>13249</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>56090</v>
+        <v>56186</v>
       </c>
       <c r="C147" s="4">
-        <v>4014</v>
+        <v>4046</v>
       </c>
       <c r="D147" s="4">
-        <v>8606</v>
+        <v>8728</v>
       </c>
       <c r="E147" s="4">
-        <v>68710</v>
+        <v>68960</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>30038</v>
+        <v>30144</v>
       </c>
       <c r="C148" s="4">
         <v>621</v>
       </c>
       <c r="D148" s="4">
-        <v>11168</v>
+        <v>11191</v>
       </c>
       <c r="E148" s="4">
-        <v>41827</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>236</v>
       </c>
       <c r="D149" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E149" s="4">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>5627</v>
+        <v>5637</v>
       </c>
       <c r="C150" s="4">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D150" s="4">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="E150" s="4">
-        <v>7632</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>11506</v>
+        <v>11537</v>
       </c>
       <c r="C151" s="4">
         <v>348</v>
       </c>
       <c r="D151" s="4">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="E151" s="4">
-        <v>13532</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>208817</v>
+        <v>209241</v>
       </c>
       <c r="C153" s="4">
-        <v>7688</v>
+        <v>7690</v>
       </c>
       <c r="D153" s="4">
-        <v>100360</v>
+        <v>100470</v>
       </c>
       <c r="E153" s="4">
-        <v>316865</v>
+        <v>317401</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2993</v>
+        <v>2999</v>
       </c>
       <c r="C154" s="4">
         <v>119</v>
       </c>
       <c r="D154" s="4">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="E154" s="4">
-        <v>5671</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>13131</v>
+        <v>13137</v>
       </c>
       <c r="C155" s="4">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D155" s="4">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="E155" s="4">
-        <v>16050</v>
+        <v>16077</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C156" s="4">
         <v>806</v>
       </c>
       <c r="D156" s="4">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E156" s="4">
-        <v>5250</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>140</v>
       </c>
       <c r="D157" s="4">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E157" s="4">
-        <v>2103</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="C158" s="4">
         <v>65</v>
       </c>
       <c r="D158" s="4">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E158" s="4">
-        <v>2588</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>34231</v>
+        <v>34256</v>
       </c>
       <c r="C159" s="4">
-        <v>1531</v>
+        <v>1582</v>
       </c>
       <c r="D159" s="4">
-        <v>3492</v>
+        <v>3507</v>
       </c>
       <c r="E159" s="4">
-        <v>39254</v>
+        <v>39345</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>60495</v>
+        <v>60585</v>
       </c>
       <c r="C160" s="4">
         <v>422</v>
       </c>
       <c r="D160" s="4">
-        <v>9922</v>
+        <v>9954</v>
       </c>
       <c r="E160" s="4">
-        <v>70839</v>
+        <v>70961</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3780,10 +3780,10 @@
         <v>49</v>
       </c>
       <c r="D161" s="4">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="E161" s="4">
-        <v>3954</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>256896</v>
+        <v>257263</v>
       </c>
       <c r="C162" s="4">
-        <v>10143</v>
+        <v>10145</v>
       </c>
       <c r="D162" s="4">
-        <v>58934</v>
+        <v>59236</v>
       </c>
       <c r="E162" s="4">
-        <v>325973</v>
+        <v>326644</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C163" s="4">
         <v>50</v>
@@ -3817,7 +3817,7 @@
         <v>70</v>
       </c>
       <c r="E163" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>30935</v>
+        <v>30978</v>
       </c>
       <c r="C164" s="4">
         <v>1310</v>
       </c>
       <c r="D164" s="4">
-        <v>7014</v>
+        <v>7039</v>
       </c>
       <c r="E164" s="4">
-        <v>39259</v>
+        <v>39327</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E165" s="4">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>48314</v>
+        <v>48396</v>
       </c>
       <c r="C166" s="4">
-        <v>6348</v>
+        <v>6355</v>
       </c>
       <c r="D166" s="4">
-        <v>44407</v>
+        <v>44583</v>
       </c>
       <c r="E166" s="4">
-        <v>99069</v>
+        <v>99334</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>17076</v>
+        <v>17088</v>
       </c>
       <c r="C167" s="4">
         <v>1023</v>
       </c>
       <c r="D167" s="4">
-        <v>7330</v>
+        <v>7337</v>
       </c>
       <c r="E167" s="4">
-        <v>25429</v>
+        <v>25448</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>4832</v>
+        <v>4842</v>
       </c>
       <c r="C168" s="4">
         <v>94</v>
@@ -3902,7 +3902,7 @@
         <v>1549</v>
       </c>
       <c r="E168" s="4">
-        <v>6475</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3916,10 +3916,10 @@
         <v>53</v>
       </c>
       <c r="D169" s="4">
-        <v>2916</v>
+        <v>2930</v>
       </c>
       <c r="E169" s="4">
-        <v>8194</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>11254</v>
+        <v>11263</v>
       </c>
       <c r="C170" s="4">
         <v>938</v>
       </c>
       <c r="D170" s="4">
-        <v>3180</v>
+        <v>3186</v>
       </c>
       <c r="E170" s="4">
-        <v>15372</v>
+        <v>15387</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>395472</v>
+        <v>396312</v>
       </c>
       <c r="C171" s="4">
-        <v>35749</v>
+        <v>36002</v>
       </c>
       <c r="D171" s="4">
-        <v>59628</v>
+        <v>60239</v>
       </c>
       <c r="E171" s="4">
-        <v>490849</v>
+        <v>492553</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7729</v>
+        <v>7737</v>
       </c>
       <c r="C172" s="4">
         <v>997</v>
       </c>
       <c r="D172" s="4">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="E172" s="4">
-        <v>10704</v>
+        <v>10722</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5928</v>
+        <v>5930</v>
       </c>
       <c r="C173" s="4">
         <v>702</v>
       </c>
       <c r="D173" s="4">
-        <v>4413</v>
+        <v>4417</v>
       </c>
       <c r="E173" s="4">
-        <v>11043</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C174" s="4">
         <v>12</v>
@@ -4004,7 +4004,7 @@
         <v>111</v>
       </c>
       <c r="E174" s="4">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>43080</v>
+        <v>43130</v>
       </c>
       <c r="C175" s="4">
-        <v>3111</v>
+        <v>3127</v>
       </c>
       <c r="D175" s="4">
-        <v>9866</v>
+        <v>9898</v>
       </c>
       <c r="E175" s="4">
-        <v>56057</v>
+        <v>56155</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>27043</v>
+        <v>27073</v>
       </c>
       <c r="C176" s="4">
         <v>1656</v>
       </c>
       <c r="D176" s="4">
-        <v>10408</v>
+        <v>10453</v>
       </c>
       <c r="E176" s="4">
-        <v>39107</v>
+        <v>39182</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3973</v>
+        <v>3976</v>
       </c>
       <c r="C177" s="4">
         <v>793</v>
       </c>
       <c r="D177" s="4">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="E177" s="4">
-        <v>7077</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>8841</v>
+        <v>8844</v>
       </c>
       <c r="C178" s="4">
         <v>160</v>
       </c>
       <c r="D178" s="4">
-        <v>3486</v>
+        <v>3501</v>
       </c>
       <c r="E178" s="4">
-        <v>12487</v>
+        <v>12505</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>222605</v>
+        <v>223002</v>
       </c>
       <c r="C179" s="4">
-        <v>43583</v>
+        <v>43619</v>
       </c>
       <c r="D179" s="4">
-        <v>67044</v>
+        <v>67399</v>
       </c>
       <c r="E179" s="4">
-        <v>333232</v>
+        <v>334020</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C180" s="4">
         <v>318</v>
       </c>
       <c r="D180" s="4">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E180" s="4">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C181" s="4">
         <v>317</v>
       </c>
       <c r="D181" s="4">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E181" s="4">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>31967</v>
+        <v>32011</v>
       </c>
       <c r="C182" s="4">
-        <v>5697</v>
+        <v>5700</v>
       </c>
       <c r="D182" s="4">
-        <v>12874</v>
+        <v>12912</v>
       </c>
       <c r="E182" s="4">
-        <v>50538</v>
+        <v>50623</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>13825</v>
+        <v>13848</v>
       </c>
       <c r="C183" s="4">
         <v>950</v>
       </c>
       <c r="D183" s="4">
-        <v>5891</v>
+        <v>5911</v>
       </c>
       <c r="E183" s="4">
-        <v>20666</v>
+        <v>20709</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>9318</v>
+        <v>9335</v>
       </c>
       <c r="C184" s="4">
         <v>1133</v>
       </c>
       <c r="D184" s="4">
-        <v>3428</v>
+        <v>3437</v>
       </c>
       <c r="E184" s="4">
-        <v>13879</v>
+        <v>13905</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>72748</v>
+        <v>72934</v>
       </c>
       <c r="C185" s="4">
         <v>6061</v>
       </c>
       <c r="D185" s="4">
-        <v>20163</v>
+        <v>20239</v>
       </c>
       <c r="E185" s="4">
-        <v>98972</v>
+        <v>99234</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="C186" s="4">
         <v>275</v>
       </c>
       <c r="D186" s="4">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="E186" s="4">
-        <v>3792</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>11009</v>
+        <v>11010</v>
       </c>
       <c r="C187" s="4">
         <v>110</v>
       </c>
       <c r="D187" s="4">
-        <v>1378</v>
+        <v>1396</v>
       </c>
       <c r="E187" s="4">
-        <v>12497</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>37777</v>
+        <v>37836</v>
       </c>
       <c r="C188" s="4">
-        <v>2200</v>
+        <v>2240</v>
       </c>
       <c r="D188" s="4">
-        <v>8021</v>
+        <v>8120</v>
       </c>
       <c r="E188" s="4">
-        <v>47998</v>
+        <v>48196</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>76921</v>
+        <v>77075</v>
       </c>
       <c r="C189" s="4">
         <v>7829</v>
       </c>
       <c r="D189" s="4">
-        <v>16370</v>
+        <v>16533</v>
       </c>
       <c r="E189" s="4">
-        <v>101120</v>
+        <v>101437</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7367</v>
+        <v>7369</v>
       </c>
       <c r="C190" s="4">
         <v>49</v>
       </c>
       <c r="D190" s="4">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E190" s="4">
-        <v>8880</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>3008</v>
+        <v>3018</v>
       </c>
       <c r="C191" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D191" s="4">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E191" s="4">
-        <v>4279</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>51262</v>
+        <v>51354</v>
       </c>
       <c r="C192" s="4">
-        <v>15962</v>
+        <v>15968</v>
       </c>
       <c r="D192" s="4">
-        <v>15299</v>
+        <v>15423</v>
       </c>
       <c r="E192" s="4">
-        <v>82523</v>
+        <v>82745</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>31</v>
       </c>
       <c r="D193" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E193" s="4">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4341,10 +4341,10 @@
         <v>76</v>
       </c>
       <c r="D194" s="4">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E194" s="4">
-        <v>2550</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>6186</v>
+        <v>6190</v>
       </c>
       <c r="C195" s="4">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D195" s="4">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="E195" s="4">
-        <v>9031</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>8322</v>
+        <v>8329</v>
       </c>
       <c r="C196" s="4">
         <v>226</v>
       </c>
       <c r="D196" s="4">
-        <v>4959</v>
+        <v>5003</v>
       </c>
       <c r="E196" s="4">
-        <v>13507</v>
+        <v>13558</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>4058</v>
+        <v>4061</v>
       </c>
       <c r="C197" s="4">
         <v>405</v>
       </c>
       <c r="D197" s="4">
-        <v>3857</v>
+        <v>3862</v>
       </c>
       <c r="E197" s="4">
-        <v>8320</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>12229</v>
+        <v>12242</v>
       </c>
       <c r="C199" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D199" s="4">
-        <v>7424</v>
+        <v>7433</v>
       </c>
       <c r="E199" s="4">
-        <v>20021</v>
+        <v>20044</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>75539</v>
+        <v>75645</v>
       </c>
       <c r="C200" s="4">
-        <v>5438</v>
+        <v>5451</v>
       </c>
       <c r="D200" s="4">
-        <v>6631</v>
+        <v>6695</v>
       </c>
       <c r="E200" s="4">
-        <v>87608</v>
+        <v>87791</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="C201" s="4">
         <v>157</v>
       </c>
       <c r="D201" s="4">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E201" s="4">
-        <v>9258</v>
+        <v>9262</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>19529</v>
+        <v>19539</v>
       </c>
       <c r="C202" s="4">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="D202" s="4">
-        <v>3447</v>
+        <v>3464</v>
       </c>
       <c r="E202" s="4">
-        <v>25094</v>
+        <v>25123</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>6452</v>
+        <v>6470</v>
       </c>
       <c r="C203" s="4">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D203" s="4">
-        <v>2442</v>
+        <v>2447</v>
       </c>
       <c r="E203" s="4">
-        <v>9504</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5827</v>
+        <v>5831</v>
       </c>
       <c r="C204" s="4">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D204" s="4">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="E204" s="4">
-        <v>9304</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>18465</v>
+        <v>18521</v>
       </c>
       <c r="C205" s="4">
-        <v>2105</v>
+        <v>2118</v>
       </c>
       <c r="D205" s="4">
-        <v>4520</v>
+        <v>4591</v>
       </c>
       <c r="E205" s="4">
-        <v>25090</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>31292</v>
+        <v>31347</v>
       </c>
       <c r="C206" s="4">
-        <v>7949</v>
+        <v>7955</v>
       </c>
       <c r="D206" s="4">
-        <v>20459</v>
+        <v>20561</v>
       </c>
       <c r="E206" s="4">
-        <v>59700</v>
+        <v>59863</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4562,10 +4562,10 @@
         <v>85</v>
       </c>
       <c r="D207" s="4">
-        <v>2261</v>
+        <v>2270</v>
       </c>
       <c r="E207" s="4">
-        <v>5428</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>14</v>
       </c>
       <c r="D208" s="4">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E208" s="4">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>17068</v>
+        <v>17083</v>
       </c>
       <c r="C209" s="4">
         <v>207</v>
       </c>
       <c r="D209" s="4">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="E209" s="4">
-        <v>18348</v>
+        <v>18370</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C210" s="4">
         <v>77</v>
       </c>
       <c r="D210" s="4">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E210" s="4">
-        <v>1419</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>12133</v>
+        <v>12167</v>
       </c>
       <c r="C211" s="4">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="D211" s="4">
-        <v>3817</v>
+        <v>3831</v>
       </c>
       <c r="E211" s="4">
-        <v>16883</v>
+        <v>16939</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>177044</v>
+        <v>177178</v>
       </c>
       <c r="C213" s="4">
-        <v>9497</v>
+        <v>9498</v>
       </c>
       <c r="D213" s="4">
-        <v>28921</v>
+        <v>29088</v>
       </c>
       <c r="E213" s="4">
-        <v>215462</v>
+        <v>215764</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>4223</v>
+        <v>4229</v>
       </c>
       <c r="C214" s="4">
         <v>386</v>
       </c>
       <c r="D214" s="4">
-        <v>4314</v>
+        <v>4323</v>
       </c>
       <c r="E214" s="4">
-        <v>8923</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>51387</v>
+        <v>51419</v>
       </c>
       <c r="C215" s="4">
         <v>631</v>
       </c>
       <c r="D215" s="4">
-        <v>17768</v>
+        <v>17820</v>
       </c>
       <c r="E215" s="4">
-        <v>69786</v>
+        <v>69870</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>3194</v>
+        <v>3217</v>
       </c>
       <c r="C216" s="4">
         <v>133</v>
       </c>
       <c r="D216" s="4">
-        <v>2589</v>
+        <v>2597</v>
       </c>
       <c r="E216" s="4">
-        <v>5916</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E218" s="4">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,13 +4763,13 @@
         <v>1283</v>
       </c>
       <c r="C219" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D219" s="4">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E219" s="4">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>4487</v>
+        <v>4497</v>
       </c>
       <c r="C220" s="4">
         <v>344</v>
       </c>
       <c r="D220" s="4">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="E220" s="4">
-        <v>5864</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1686744</v>
+        <v>1690451</v>
       </c>
       <c r="C221" s="4">
-        <v>91960</v>
+        <v>92018</v>
       </c>
       <c r="D221" s="4">
-        <v>231872</v>
+        <v>233404</v>
       </c>
       <c r="E221" s="4">
-        <v>2010576</v>
+        <v>2015873</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>85985</v>
+        <v>86026</v>
       </c>
       <c r="C222" s="4">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="D222" s="4">
-        <v>55602</v>
+        <v>55769</v>
       </c>
       <c r="E222" s="4">
-        <v>145011</v>
+        <v>145221</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="C224" s="4">
         <v>114</v>
       </c>
       <c r="D224" s="4">
-        <v>1538</v>
+        <v>1551</v>
       </c>
       <c r="E224" s="4">
-        <v>5310</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>30</v>
       </c>
       <c r="D225" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E225" s="4">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>23134</v>
+        <v>23141</v>
       </c>
       <c r="C226" s="4">
         <v>1173</v>
       </c>
       <c r="D226" s="4">
-        <v>4120</v>
+        <v>4124</v>
       </c>
       <c r="E226" s="4">
-        <v>28427</v>
+        <v>28438</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>74003</v>
+        <v>74092</v>
       </c>
       <c r="C227" s="4">
         <v>1743</v>
       </c>
       <c r="D227" s="4">
-        <v>45357</v>
+        <v>45532</v>
       </c>
       <c r="E227" s="4">
-        <v>121103</v>
+        <v>121367</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1070349</v>
+        <v>1073115</v>
       </c>
       <c r="C228" s="4">
-        <v>42584</v>
+        <v>42620</v>
       </c>
       <c r="D228" s="4">
-        <v>176722</v>
+        <v>177866</v>
       </c>
       <c r="E228" s="4">
-        <v>1289655</v>
+        <v>1293601</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>11569</v>
+        <v>11578</v>
       </c>
       <c r="C229" s="4">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D229" s="4">
-        <v>3357</v>
+        <v>3416</v>
       </c>
       <c r="E229" s="4">
-        <v>15417</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>9730</v>
+        <v>9739</v>
       </c>
       <c r="C230" s="4">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D230" s="4">
-        <v>5511</v>
+        <v>5561</v>
       </c>
       <c r="E230" s="4">
-        <v>16189</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>11188</v>
+        <v>11191</v>
       </c>
       <c r="C231" s="4">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D231" s="4">
-        <v>3888</v>
+        <v>3894</v>
       </c>
       <c r="E231" s="4">
-        <v>17140</v>
+        <v>17152</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C232" s="4">
         <v>74</v>
       </c>
       <c r="D232" s="4">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="E232" s="4">
-        <v>3197</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>24882</v>
+        <v>24893</v>
       </c>
       <c r="C233" s="4">
         <v>432</v>
       </c>
       <c r="D233" s="4">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="E233" s="4">
-        <v>27384</v>
+        <v>27406</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>44198</v>
+        <v>44243</v>
       </c>
       <c r="C234" s="4">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D234" s="4">
-        <v>15006</v>
+        <v>15062</v>
       </c>
       <c r="E234" s="4">
-        <v>60443</v>
+        <v>60545</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>19796</v>
+        <v>19834</v>
       </c>
       <c r="C235" s="4">
         <v>1861</v>
       </c>
       <c r="D235" s="4">
-        <v>8689</v>
+        <v>8721</v>
       </c>
       <c r="E235" s="4">
-        <v>30346</v>
+        <v>30416</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>42624</v>
+        <v>42732</v>
       </c>
       <c r="C236" s="4">
         <v>2146</v>
       </c>
       <c r="D236" s="4">
-        <v>16526</v>
+        <v>16613</v>
       </c>
       <c r="E236" s="4">
-        <v>61296</v>
+        <v>61491</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>109249</v>
+        <v>109354</v>
       </c>
       <c r="C237" s="4">
-        <v>2731</v>
+        <v>2737</v>
       </c>
       <c r="D237" s="4">
-        <v>16054</v>
+        <v>16264</v>
       </c>
       <c r="E237" s="4">
-        <v>128034</v>
+        <v>128355</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>36034</v>
+        <v>36086</v>
       </c>
       <c r="C238" s="4">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="D238" s="4">
-        <v>4654</v>
+        <v>4698</v>
       </c>
       <c r="E238" s="4">
-        <v>42539</v>
+        <v>42641</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4535</v>
+        <v>4539</v>
       </c>
       <c r="C239" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D239" s="4">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E239" s="4">
-        <v>5261</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>38412</v>
+        <v>38430</v>
       </c>
       <c r="C240" s="4">
         <v>1613</v>
       </c>
       <c r="D240" s="4">
-        <v>9332</v>
+        <v>9353</v>
       </c>
       <c r="E240" s="4">
-        <v>49357</v>
+        <v>49396</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>366783</v>
+        <v>367082</v>
       </c>
       <c r="C241" s="4">
-        <v>4905</v>
+        <v>4913</v>
       </c>
       <c r="D241" s="4">
-        <v>74341</v>
+        <v>74647</v>
       </c>
       <c r="E241" s="4">
-        <v>446029</v>
+        <v>446642</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>32787</v>
+        <v>32805</v>
       </c>
       <c r="C242" s="4">
-        <v>2081</v>
+        <v>2087</v>
       </c>
       <c r="D242" s="4">
-        <v>4576</v>
+        <v>4592</v>
       </c>
       <c r="E242" s="4">
-        <v>39444</v>
+        <v>39484</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C243" s="4">
         <v>408</v>
       </c>
       <c r="D243" s="4">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="E243" s="4">
-        <v>4195</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>106033</v>
+        <v>106075</v>
       </c>
       <c r="C244" s="4">
-        <v>6903</v>
+        <v>6905</v>
       </c>
       <c r="D244" s="4">
-        <v>24228</v>
+        <v>24293</v>
       </c>
       <c r="E244" s="4">
-        <v>137164</v>
+        <v>137273</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>12441</v>
+        <v>12462</v>
       </c>
       <c r="C245" s="4">
         <v>620</v>
       </c>
       <c r="D245" s="4">
-        <v>5066</v>
+        <v>5069</v>
       </c>
       <c r="E245" s="4">
-        <v>18127</v>
+        <v>18151</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>26755</v>
+        <v>26776</v>
       </c>
       <c r="C246" s="4">
         <v>183</v>
       </c>
       <c r="D246" s="4">
-        <v>3321</v>
+        <v>3333</v>
       </c>
       <c r="E246" s="4">
-        <v>30259</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>455581</v>
+        <v>456460</v>
       </c>
       <c r="C247" s="4">
-        <v>15888</v>
+        <v>15911</v>
       </c>
       <c r="D247" s="4">
-        <v>82609</v>
+        <v>83293</v>
       </c>
       <c r="E247" s="4">
-        <v>554078</v>
+        <v>555664</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>34822</v>
+        <v>34859</v>
       </c>
       <c r="C248" s="4">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D248" s="4">
-        <v>8675</v>
+        <v>8694</v>
       </c>
       <c r="E248" s="4">
-        <v>44628</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>48013</v>
+        <v>48061</v>
       </c>
       <c r="C250" s="4">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="D250" s="4">
-        <v>6843</v>
+        <v>6885</v>
       </c>
       <c r="E250" s="4">
-        <v>58097</v>
+        <v>58191</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>17418</v>
+        <v>17425</v>
       </c>
       <c r="C251" s="4">
         <v>1854</v>
       </c>
       <c r="D251" s="4">
-        <v>4760</v>
+        <v>4771</v>
       </c>
       <c r="E251" s="4">
-        <v>24032</v>
+        <v>24050</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="C252" s="4">
         <v>118</v>
@@ -5330,7 +5330,7 @@
         <v>552</v>
       </c>
       <c r="E252" s="4">
-        <v>2953</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>7201</v>
+        <v>7218</v>
       </c>
       <c r="C253" s="4">
         <v>567</v>
       </c>
       <c r="D253" s="4">
-        <v>2434</v>
+        <v>2446</v>
       </c>
       <c r="E253" s="4">
-        <v>10202</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>16420</v>
+        <v>16426</v>
       </c>
       <c r="C254" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D254" s="4">
-        <v>6484</v>
+        <v>6523</v>
       </c>
       <c r="E254" s="4">
-        <v>23034</v>
+        <v>23080</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9701</v>
+        <v>9704</v>
       </c>
       <c r="C255" s="4">
         <v>242</v>
       </c>
       <c r="D255" s="4">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E255" s="4">
-        <v>10956</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>140977</v>
+        <v>141027</v>
       </c>
       <c r="C256" s="4">
-        <v>13229</v>
+        <v>13235</v>
       </c>
       <c r="D256" s="4">
-        <v>10177</v>
+        <v>10191</v>
       </c>
       <c r="E256" s="4">
-        <v>164383</v>
+        <v>164453</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>23932230</v>
+        <v>23973724</v>
       </c>
       <c r="C257" s="4">
-        <v>1305118</v>
+        <v>1307374</v>
       </c>
       <c r="D257" s="4">
-        <v>4266099</v>
+        <v>4291338</v>
       </c>
       <c r="E257" s="4">
-        <v>29503447</v>
+        <v>29572436</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
